--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Procr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H2">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I2">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J2">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.518283</v>
+        <v>15.519257</v>
       </c>
       <c r="N2">
-        <v>23.036566</v>
+        <v>31.038514</v>
       </c>
       <c r="O2">
-        <v>0.3533894220516505</v>
+        <v>0.3979295748367648</v>
       </c>
       <c r="P2">
-        <v>0.2877585288090849</v>
+        <v>0.3581777664585313</v>
       </c>
       <c r="Q2">
-        <v>2.274020057841</v>
+        <v>67.146517453106</v>
       </c>
       <c r="R2">
-        <v>9.096080231364001</v>
+        <v>268.586069812424</v>
       </c>
       <c r="S2">
-        <v>0.0001598702039584287</v>
+        <v>0.00280528936139783</v>
       </c>
       <c r="T2">
-        <v>8.679934020751412E-05</v>
+        <v>0.001690983591828355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H3">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I3">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J3">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.338384</v>
       </c>
       <c r="O3">
-        <v>0.2079988764304695</v>
+        <v>0.1738323017651953</v>
       </c>
       <c r="P3">
-        <v>0.2540545087403319</v>
+        <v>0.2347005708616053</v>
       </c>
       <c r="Q3">
-        <v>1.338448712656</v>
+        <v>29.33241061355733</v>
       </c>
       <c r="R3">
-        <v>8.030692275936</v>
+        <v>175.994463681344</v>
       </c>
       <c r="S3">
-        <v>9.409682555015195E-05</v>
+        <v>0.001225467865788159</v>
       </c>
       <c r="T3">
-        <v>7.663287627535552E-05</v>
+        <v>0.001108038665391788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H4">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I4">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J4">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5063716666666667</v>
+        <v>0.111973</v>
       </c>
       <c r="N4">
-        <v>1.519115</v>
+        <v>0.335919</v>
       </c>
       <c r="O4">
-        <v>0.01553585639688349</v>
+        <v>0.002871101901540587</v>
       </c>
       <c r="P4">
-        <v>0.01897584464159342</v>
+        <v>0.003876432909480891</v>
       </c>
       <c r="Q4">
-        <v>0.099971439035</v>
+        <v>0.484468876234</v>
       </c>
       <c r="R4">
-        <v>0.59982863421</v>
+        <v>2.906813257404</v>
       </c>
       <c r="S4">
-        <v>7.028282047660182E-06</v>
+        <v>2.024044486561432E-05</v>
       </c>
       <c r="T4">
-        <v>5.723864385835016E-06</v>
+        <v>1.830092501153209E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H5">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I5">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J5">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.207739500000001</v>
+        <v>14.82404</v>
       </c>
       <c r="N5">
-        <v>12.415479</v>
+        <v>29.64808</v>
       </c>
       <c r="O5">
-        <v>0.1904580286968294</v>
+        <v>0.3801035020273971</v>
       </c>
       <c r="P5">
-        <v>0.1550864817047858</v>
+        <v>0.3421324575713854</v>
       </c>
       <c r="Q5">
-        <v>1.2255753862665</v>
+        <v>64.13855125832001</v>
       </c>
       <c r="R5">
-        <v>4.902301545066</v>
+        <v>256.55420503328</v>
       </c>
       <c r="S5">
-        <v>8.616150341034286E-05</v>
+        <v>0.002679620661281393</v>
       </c>
       <c r="T5">
-        <v>4.678020958333145E-05</v>
+        <v>0.001615232507884057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H6">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I6">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J6">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.942118000000001</v>
+        <v>1.118862333333333</v>
       </c>
       <c r="N6">
-        <v>20.826354</v>
+        <v>3.356587</v>
       </c>
       <c r="O6">
-        <v>0.2129893029919789</v>
+        <v>0.02868877115729213</v>
       </c>
       <c r="P6">
-        <v>0.2601499280533914</v>
+        <v>0.03873429103544526</v>
       </c>
       <c r="Q6">
-        <v>1.370561530386</v>
+        <v>4.840934665415333</v>
       </c>
       <c r="R6">
-        <v>8.223369182316</v>
+        <v>29.045607992492</v>
       </c>
       <c r="S6">
-        <v>9.635444975292577E-05</v>
+        <v>0.0002022476076379657</v>
       </c>
       <c r="T6">
-        <v>7.84714955400958E-05</v>
+        <v>0.0001828674382267257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H7">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I7">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J7">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6397666666666667</v>
+        <v>0.6464153333333333</v>
       </c>
       <c r="N7">
-        <v>1.9193</v>
+        <v>1.939246</v>
       </c>
       <c r="O7">
-        <v>0.01962851343218814</v>
+        <v>0.01657474831181022</v>
       </c>
       <c r="P7">
-        <v>0.02397470805081264</v>
+        <v>0.02237848116355187</v>
       </c>
       <c r="Q7">
-        <v>0.1263072137</v>
+        <v>2.796818073289333</v>
       </c>
       <c r="R7">
-        <v>0.7578432822000001</v>
+        <v>16.780908439736</v>
       </c>
       <c r="S7">
-        <v>8.879763371485496E-06</v>
+        <v>0.0001168472213356884</v>
       </c>
       <c r="T7">
-        <v>7.231719070467442E-06</v>
+        <v>0.0001056504562853354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>3.752158</v>
       </c>
       <c r="I8">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J8">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.518283</v>
+        <v>15.519257</v>
       </c>
       <c r="N8">
-        <v>23.036566</v>
+        <v>31.038514</v>
       </c>
       <c r="O8">
-        <v>0.3533894220516505</v>
+        <v>0.3979295748367648</v>
       </c>
       <c r="P8">
-        <v>0.2877585288090849</v>
+        <v>0.3581777664585313</v>
       </c>
       <c r="Q8">
-        <v>14.40613923490467</v>
+        <v>19.41023476886867</v>
       </c>
       <c r="R8">
-        <v>86.436835409428</v>
+        <v>116.461408613212</v>
       </c>
       <c r="S8">
-        <v>0.001012793361165139</v>
+        <v>0.0008109329741094824</v>
       </c>
       <c r="T8">
-        <v>0.0008248234505775444</v>
+        <v>0.0007332261542219764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>3.752158</v>
       </c>
       <c r="I9">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J9">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>20.338384</v>
       </c>
       <c r="O9">
-        <v>0.2079988764304695</v>
+        <v>0.1738323017651953</v>
       </c>
       <c r="P9">
-        <v>0.2540545087403319</v>
+        <v>0.2347005708616053</v>
       </c>
       <c r="Q9">
         <v>8.479203359185776</v>
       </c>
       <c r="R9">
-        <v>76.31283023267198</v>
+        <v>76.312830232672</v>
       </c>
       <c r="S9">
-        <v>0.0005961125829844398</v>
+        <v>0.0003542494812670631</v>
       </c>
       <c r="T9">
-        <v>0.0007282151371888987</v>
+        <v>0.0004804558324992548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>3.752158</v>
       </c>
       <c r="I10">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J10">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.5063716666666667</v>
+        <v>0.111973</v>
       </c>
       <c r="N10">
-        <v>1.519115</v>
+        <v>0.335919</v>
       </c>
       <c r="O10">
-        <v>0.01553585639688349</v>
+        <v>0.002871101901540587</v>
       </c>
       <c r="P10">
-        <v>0.01897584464159342</v>
+        <v>0.003876432909480891</v>
       </c>
       <c r="Q10">
-        <v>0.6333288333522222</v>
+        <v>0.1400467959113333</v>
       </c>
       <c r="R10">
-        <v>5.699959500169999</v>
+        <v>1.260421163202</v>
       </c>
       <c r="S10">
-        <v>4.452485342495291E-05</v>
+        <v>5.850962962335186E-06</v>
       </c>
       <c r="T10">
-        <v>5.439186014634761E-05</v>
+        <v>7.935450663008289E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>3.752158</v>
       </c>
       <c r="I11">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J11">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.207739500000001</v>
+        <v>14.82404</v>
       </c>
       <c r="N11">
-        <v>12.415479</v>
+        <v>29.64808</v>
       </c>
       <c r="O11">
-        <v>0.1904580286968294</v>
+        <v>0.3801035020273971</v>
       </c>
       <c r="P11">
-        <v>0.1550864817047858</v>
+        <v>0.3421324575713854</v>
       </c>
       <c r="Q11">
-        <v>7.764139808947</v>
+        <v>18.54071342610667</v>
       </c>
       <c r="R11">
-        <v>46.584838853682</v>
+        <v>111.24428055664</v>
       </c>
       <c r="S11">
-        <v>0.0005458415419592141</v>
+        <v>0.0007746055655575479</v>
       </c>
       <c r="T11">
-        <v>0.0004445357971041796</v>
+        <v>0.0007003797823074098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>3.752158</v>
       </c>
       <c r="I12">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J12">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.942118000000001</v>
+        <v>1.118862333333333</v>
       </c>
       <c r="N12">
-        <v>20.826354</v>
+        <v>3.356587</v>
       </c>
       <c r="O12">
-        <v>0.2129893029919789</v>
+        <v>0.02868877115729213</v>
       </c>
       <c r="P12">
-        <v>0.2601499280533914</v>
+        <v>0.03873429103544526</v>
       </c>
       <c r="Q12">
-        <v>8.682641196881335</v>
+        <v>1.399382751638444</v>
       </c>
       <c r="R12">
-        <v>78.143770771932</v>
+        <v>12.594444764746</v>
       </c>
       <c r="S12">
-        <v>0.0006104148528756425</v>
+        <v>5.846429114416207E-05</v>
       </c>
       <c r="T12">
-        <v>0.0007456868861977713</v>
+        <v>7.929301568114636E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,40 +1231,40 @@
         <v>3.752158</v>
       </c>
       <c r="I13">
-        <v>0.002865941360907832</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J13">
-        <v>0.002866373601474653</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6397666666666667</v>
+        <v>0.6464153333333333</v>
       </c>
       <c r="N13">
-        <v>1.9193</v>
+        <v>1.939246</v>
       </c>
       <c r="O13">
-        <v>0.01962851343218814</v>
+        <v>0.01657474831181022</v>
       </c>
       <c r="P13">
-        <v>0.02397470805081264</v>
+        <v>0.02237848116355187</v>
       </c>
       <c r="Q13">
-        <v>0.8001685388222223</v>
+        <v>0.8084841547631111</v>
       </c>
       <c r="R13">
-        <v>7.2015168494</v>
+        <v>7.276357392868</v>
       </c>
       <c r="S13">
-        <v>5.625416849844292E-05</v>
+        <v>3.377735859197206E-05</v>
       </c>
       <c r="T13">
-        <v>6.872047025991119E-05</v>
+        <v>4.581101681189862E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H14">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I14">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J14">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.518283</v>
+        <v>15.519257</v>
       </c>
       <c r="N14">
-        <v>23.036566</v>
+        <v>31.038514</v>
       </c>
       <c r="O14">
-        <v>0.3533894220516505</v>
+        <v>0.3979295748367648</v>
       </c>
       <c r="P14">
-        <v>0.2877585288090849</v>
+        <v>0.3581777664585313</v>
       </c>
       <c r="Q14">
-        <v>3018.683980118511</v>
+        <v>1692.808775294749</v>
       </c>
       <c r="R14">
-        <v>18112.10388071106</v>
+        <v>10156.8526517685</v>
       </c>
       <c r="S14">
-        <v>0.2122222369690861</v>
+        <v>0.07072322777620961</v>
       </c>
       <c r="T14">
-        <v>0.1728347405286606</v>
+        <v>0.06394624706617742</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H15">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I15">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J15">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.338384</v>
       </c>
       <c r="O15">
-        <v>0.2079988764304695</v>
+        <v>0.1738323017651953</v>
       </c>
       <c r="P15">
-        <v>0.2540545087403319</v>
+        <v>0.2347005708616053</v>
       </c>
       <c r="Q15">
-        <v>1776.744964572082</v>
+        <v>739.4897601630097</v>
       </c>
       <c r="R15">
-        <v>15990.70468114873</v>
+        <v>6655.407841467088</v>
       </c>
       <c r="S15">
-        <v>0.1249103229713511</v>
+        <v>0.03089486745901166</v>
       </c>
       <c r="T15">
-        <v>0.1525912899262964</v>
+        <v>0.04190159774371897</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H16">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I16">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J16">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.5063716666666667</v>
+        <v>0.111973</v>
       </c>
       <c r="N16">
-        <v>1.519115</v>
+        <v>0.335919</v>
       </c>
       <c r="O16">
-        <v>0.01553585639688349</v>
+        <v>0.002871101901540587</v>
       </c>
       <c r="P16">
-        <v>0.01897584464159342</v>
+        <v>0.003876432909480891</v>
       </c>
       <c r="Q16">
-        <v>132.7086717831622</v>
+        <v>12.21378555662033</v>
       </c>
       <c r="R16">
-        <v>1194.37804604846</v>
+        <v>109.924070009583</v>
       </c>
       <c r="S16">
-        <v>0.009329804436804029</v>
+        <v>0.0005102752009188016</v>
       </c>
       <c r="T16">
-        <v>0.01139735179532385</v>
+        <v>0.0006920679053199277</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H17">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I17">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J17">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.207739500000001</v>
+        <v>14.82404</v>
       </c>
       <c r="N17">
-        <v>12.415479</v>
+        <v>29.64808</v>
       </c>
       <c r="O17">
-        <v>0.1904580286968294</v>
+        <v>0.3801035020273971</v>
       </c>
       <c r="P17">
-        <v>0.1550864817047858</v>
+        <v>0.3421324575713854</v>
       </c>
       <c r="Q17">
-        <v>1626.909477862186</v>
+        <v>1616.975928507427</v>
       </c>
       <c r="R17">
-        <v>9761.456867173118</v>
+        <v>9701.85557104456</v>
       </c>
       <c r="S17">
-        <v>0.1143764537832033</v>
+        <v>0.06755503549452414</v>
       </c>
       <c r="T17">
-        <v>0.09314869635969335</v>
+        <v>0.06108164355799358</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H18">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I18">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J18">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.942118000000001</v>
+        <v>1.118862333333333</v>
       </c>
       <c r="N18">
-        <v>20.826354</v>
+        <v>3.356587</v>
       </c>
       <c r="O18">
-        <v>0.2129893029919789</v>
+        <v>0.02868877115729213</v>
       </c>
       <c r="P18">
-        <v>0.2601499280533914</v>
+        <v>0.03873429103544526</v>
       </c>
       <c r="Q18">
-        <v>1819.373633612958</v>
+        <v>122.0432122628955</v>
       </c>
       <c r="R18">
-        <v>16374.36270251662</v>
+        <v>1098.388910366059</v>
       </c>
       <c r="S18">
-        <v>0.1279072420137062</v>
+        <v>0.005098797941844426</v>
       </c>
       <c r="T18">
-        <v>0.1562523463674245</v>
+        <v>0.006915316293850901</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>262.0776013333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H19">
-        <v>786.232804</v>
+        <v>327.233857</v>
       </c>
       <c r="I19">
-        <v>0.6005336428492992</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J19">
-        <v>0.6006242151847004</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6397666666666667</v>
+        <v>0.6464153333333333</v>
       </c>
       <c r="N19">
-        <v>1.9193</v>
+        <v>1.939246</v>
       </c>
       <c r="O19">
-        <v>0.01962851343218814</v>
+        <v>0.01657474831181022</v>
       </c>
       <c r="P19">
-        <v>0.02397470805081264</v>
+        <v>0.02237848116355187</v>
       </c>
       <c r="Q19">
-        <v>167.6685134130223</v>
+        <v>70.50966091686911</v>
       </c>
       <c r="R19">
-        <v>1509.0166207172</v>
+        <v>634.586948251822</v>
       </c>
       <c r="S19">
-        <v>0.01178758267514834</v>
+        <v>0.002945796880441364</v>
       </c>
       <c r="T19">
-        <v>0.01439979020730166</v>
+        <v>0.003995278376989836</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H20">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I20">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J20">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.518283</v>
+        <v>15.519257</v>
       </c>
       <c r="N20">
-        <v>23.036566</v>
+        <v>31.038514</v>
       </c>
       <c r="O20">
-        <v>0.3533894220516505</v>
+        <v>0.3979295748367648</v>
       </c>
       <c r="P20">
-        <v>0.2877585288090849</v>
+        <v>0.3581777664585313</v>
       </c>
       <c r="Q20">
-        <v>20.389468755789</v>
+        <v>61.5580718055485</v>
       </c>
       <c r="R20">
-        <v>122.336812534734</v>
+        <v>246.232287222194</v>
       </c>
       <c r="S20">
-        <v>0.001433438776123545</v>
+        <v>0.002571811770653205</v>
       </c>
       <c r="T20">
-        <v>0.001167398960982221</v>
+        <v>0.001550247031656876</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H21">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I21">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J21">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>20.338384</v>
       </c>
       <c r="O21">
-        <v>0.2079988764304695</v>
+        <v>0.1738323017651953</v>
       </c>
       <c r="P21">
-        <v>0.2540545087403319</v>
+        <v>0.2347005708616053</v>
       </c>
       <c r="Q21">
-        <v>12.000887201424</v>
+        <v>26.89114353607733</v>
       </c>
       <c r="R21">
-        <v>108.007984812816</v>
+        <v>161.346861216464</v>
       </c>
       <c r="S21">
-        <v>0.0008436971687907157</v>
+        <v>0.001123475077173794</v>
       </c>
       <c r="T21">
-        <v>0.001030666130952739</v>
+        <v>0.001015819231059119</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H22">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I22">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J22">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.5063716666666667</v>
+        <v>0.111973</v>
       </c>
       <c r="N22">
-        <v>1.519115</v>
+        <v>0.335919</v>
       </c>
       <c r="O22">
-        <v>0.01553585639688349</v>
+        <v>0.002871101901540587</v>
       </c>
       <c r="P22">
-        <v>0.01897584464159342</v>
+        <v>0.003876432909480891</v>
       </c>
       <c r="Q22">
-        <v>0.8963705160150001</v>
+        <v>0.4441476788665</v>
       </c>
       <c r="R22">
-        <v>8.067334644135</v>
+        <v>2.664886073199</v>
       </c>
       <c r="S22">
-        <v>6.301744644842521E-05</v>
+        <v>1.855588056795189E-05</v>
       </c>
       <c r="T22">
-        <v>7.698253605214018E-05</v>
+        <v>1.677778235862535E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H23">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I23">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J23">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.207739500000001</v>
+        <v>14.82404</v>
       </c>
       <c r="N23">
-        <v>12.415479</v>
+        <v>29.64808</v>
       </c>
       <c r="O23">
-        <v>0.1904580286968294</v>
+        <v>0.3801035020273971</v>
       </c>
       <c r="P23">
-        <v>0.1550864817047858</v>
+        <v>0.3421324575713854</v>
       </c>
       <c r="Q23">
-        <v>10.9888349313285</v>
+        <v>58.80045151442</v>
       </c>
       <c r="R23">
-        <v>65.933009587971</v>
+        <v>235.20180605768</v>
       </c>
       <c r="S23">
-        <v>0.0007725469595923098</v>
+        <v>0.002456602178869384</v>
       </c>
       <c r="T23">
-        <v>0.0006291657048492638</v>
+        <v>0.001480800531053954</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H24">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I24">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J24">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.942118000000001</v>
+        <v>1.118862333333333</v>
       </c>
       <c r="N24">
-        <v>20.826354</v>
+        <v>3.356587</v>
       </c>
       <c r="O24">
-        <v>0.2129893029919789</v>
+        <v>0.02868877115729213</v>
       </c>
       <c r="P24">
-        <v>0.2601499280533914</v>
+        <v>0.03873429103544526</v>
       </c>
       <c r="Q24">
-        <v>12.288819267594</v>
+        <v>4.438035136337834</v>
       </c>
       <c r="R24">
-        <v>110.599373408346</v>
+        <v>26.628210818027</v>
       </c>
       <c r="S24">
-        <v>0.0008639396279484741</v>
+        <v>0.0001854150181678915</v>
       </c>
       <c r="T24">
-        <v>0.001055394455087096</v>
+        <v>0.0001676478143653416</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>1.770183</v>
+        <v>3.9665605</v>
       </c>
       <c r="H25">
-        <v>5.310549</v>
+        <v>7.933121</v>
       </c>
       <c r="I25">
-        <v>0.004056258299418022</v>
+        <v>0.006462982229225337</v>
       </c>
       <c r="J25">
-        <v>0.004056870063290943</v>
+        <v>0.004328149809478357</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6397666666666667</v>
+        <v>0.6464153333333333</v>
       </c>
       <c r="N25">
-        <v>1.9193</v>
+        <v>1.939246</v>
       </c>
       <c r="O25">
-        <v>0.01962851343218814</v>
+        <v>0.01657474831181022</v>
       </c>
       <c r="P25">
-        <v>0.02397470805081264</v>
+        <v>0.02237848116355187</v>
       </c>
       <c r="Q25">
-        <v>1.1325040773</v>
+        <v>2.564045527794333</v>
       </c>
       <c r="R25">
-        <v>10.1925366957</v>
+        <v>15.384273166766</v>
       </c>
       <c r="S25">
-        <v>7.961832051455124E-05</v>
+        <v>0.0001071223037931121</v>
       </c>
       <c r="T25">
-        <v>9.726227536748216E-05</v>
+        <v>9.685741898444201E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H26">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I26">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J26">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.518283</v>
+        <v>15.519257</v>
       </c>
       <c r="N26">
-        <v>23.036566</v>
+        <v>31.038514</v>
       </c>
       <c r="O26">
-        <v>0.3533894220516505</v>
+        <v>0.3979295748367648</v>
       </c>
       <c r="P26">
-        <v>0.2877585288090849</v>
+        <v>0.3581777664585313</v>
       </c>
       <c r="Q26">
-        <v>1970.915615219052</v>
+        <v>1022.150390031177</v>
       </c>
       <c r="R26">
-        <v>11825.49369131431</v>
+        <v>6132.902340187065</v>
       </c>
       <c r="S26">
-        <v>0.1385610827413172</v>
+        <v>0.04270404071075863</v>
       </c>
       <c r="T26">
-        <v>0.112844766528657</v>
+        <v>0.03861196984186381</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H27">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I27">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J27">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>20.338384</v>
       </c>
       <c r="O27">
-        <v>0.2079988764304695</v>
+        <v>0.1738323017651953</v>
       </c>
       <c r="P27">
-        <v>0.2540545087403319</v>
+        <v>0.2347005708616053</v>
       </c>
       <c r="Q27">
-        <v>1160.046701807938</v>
+        <v>446.5180933641316</v>
       </c>
       <c r="R27">
-        <v>10440.42031627144</v>
+        <v>4018.662840277184</v>
       </c>
       <c r="S27">
-        <v>0.08155464688179311</v>
+        <v>0.0186549132330034</v>
       </c>
       <c r="T27">
-        <v>0.0996277046696184</v>
+        <v>0.02530098798029588</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H28">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I28">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J28">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.5063716666666667</v>
+        <v>0.111973</v>
       </c>
       <c r="N28">
-        <v>1.519115</v>
+        <v>0.335919</v>
       </c>
       <c r="O28">
-        <v>0.01553585639688349</v>
+        <v>0.002871101901540587</v>
       </c>
       <c r="P28">
-        <v>0.01897584464159342</v>
+        <v>0.003876432909480891</v>
       </c>
       <c r="Q28">
-        <v>86.64623233669722</v>
+        <v>7.374917859982666</v>
       </c>
       <c r="R28">
-        <v>779.8160910302749</v>
+        <v>66.37426073984399</v>
       </c>
       <c r="S28">
-        <v>0.00609148137815842</v>
+        <v>0.0003081139484000926</v>
       </c>
       <c r="T28">
-        <v>0.007441394585685243</v>
+        <v>0.0004178838683227247</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H29">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I29">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J29">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.207739500000001</v>
+        <v>14.82404</v>
       </c>
       <c r="N29">
-        <v>12.415479</v>
+        <v>29.64808</v>
       </c>
       <c r="O29">
-        <v>0.1904580286968294</v>
+        <v>0.3801035020273971</v>
       </c>
       <c r="P29">
-        <v>0.1550864817047858</v>
+        <v>0.3421324575713854</v>
       </c>
       <c r="Q29">
-        <v>1062.218276436003</v>
+        <v>976.3610634090134</v>
       </c>
       <c r="R29">
-        <v>6373.309658616015</v>
+        <v>5858.16638045408</v>
       </c>
       <c r="S29">
-        <v>0.07467702490866418</v>
+        <v>0.0407910254761497</v>
       </c>
       <c r="T29">
-        <v>0.06081730363355562</v>
+        <v>0.03688226732855721</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>171.1119283333333</v>
+        <v>65.86335866666667</v>
       </c>
       <c r="H30">
-        <v>513.335785</v>
+        <v>197.590076</v>
       </c>
       <c r="I30">
-        <v>0.3920917664622839</v>
+        <v>0.1073155739386204</v>
       </c>
       <c r="J30">
-        <v>0.3921509016454713</v>
+        <v>0.1078011352397391</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.942118000000001</v>
+        <v>1.118862333333333</v>
       </c>
       <c r="N30">
-        <v>20.826354</v>
+        <v>3.356587</v>
       </c>
       <c r="O30">
-        <v>0.2129893029919789</v>
+        <v>0.02868877115729213</v>
       </c>
       <c r="P30">
-        <v>0.2601499280533914</v>
+        <v>0.03873429103544526</v>
       </c>
       <c r="Q30">
-        <v>1187.879197697544</v>
+        <v>73.69203115895689</v>
       </c>
       <c r="R30">
-        <v>10690.91277927789</v>
+        <v>663.2282804306121</v>
       </c>
       <c r="S30">
-        <v>0.08351135204769562</v>
+        <v>0.003078751942338546</v>
       </c>
       <c r="T30">
-        <v>0.1020180288491419</v>
+        <v>0.004175600546327447</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>65.86335866666667</v>
+      </c>
+      <c r="H31">
+        <v>197.590076</v>
+      </c>
+      <c r="I31">
+        <v>0.1073155739386204</v>
+      </c>
+      <c r="J31">
+        <v>0.1078011352397391</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.6464153333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.939246</v>
+      </c>
+      <c r="O31">
+        <v>0.01657474831181022</v>
+      </c>
+      <c r="P31">
+        <v>0.02237848116355187</v>
+      </c>
+      <c r="Q31">
+        <v>42.57508494696623</v>
+      </c>
+      <c r="R31">
+        <v>383.175764522696</v>
+      </c>
+      <c r="S31">
+        <v>0.001778728627970094</v>
+      </c>
+      <c r="T31">
+        <v>0.002412425674372008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H32">
+        <v>1287.750229</v>
+      </c>
+      <c r="I32">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J32">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.519257</v>
+      </c>
+      <c r="N32">
+        <v>31.038514</v>
+      </c>
+      <c r="O32">
+        <v>0.3979295748367648</v>
+      </c>
+      <c r="P32">
+        <v>0.3581777664585313</v>
+      </c>
+      <c r="Q32">
+        <v>6661.642251886617</v>
+      </c>
+      <c r="R32">
+        <v>39969.85351131971</v>
+      </c>
+      <c r="S32">
+        <v>0.2783142722436361</v>
+      </c>
+      <c r="T32">
+        <v>0.2516450927727829</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H33">
+        <v>1287.750229</v>
+      </c>
+      <c r="I33">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J33">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>6.779461333333333</v>
+      </c>
+      <c r="N33">
+        <v>20.338384</v>
+      </c>
+      <c r="O33">
+        <v>0.1738323017651953</v>
+      </c>
+      <c r="P33">
+        <v>0.2347005708616053</v>
+      </c>
+      <c r="Q33">
+        <v>2910.084294832215</v>
+      </c>
+      <c r="R33">
+        <v>26190.75865348993</v>
+      </c>
+      <c r="S33">
+        <v>0.1215793286489513</v>
+      </c>
+      <c r="T33">
+        <v>0.1648936714086403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H34">
+        <v>1287.750229</v>
+      </c>
+      <c r="I34">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J34">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.111973</v>
+      </c>
+      <c r="N34">
+        <v>0.335919</v>
+      </c>
+      <c r="O34">
+        <v>0.002871101901540587</v>
+      </c>
+      <c r="P34">
+        <v>0.003876432909480891</v>
+      </c>
+      <c r="Q34">
+        <v>48.06441879727232</v>
+      </c>
+      <c r="R34">
+        <v>432.579769175451</v>
+      </c>
+      <c r="S34">
+        <v>0.002008065463825791</v>
+      </c>
+      <c r="T34">
+        <v>0.002723466977805072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H35">
+        <v>1287.750229</v>
+      </c>
+      <c r="I35">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J35">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>14.82404</v>
+      </c>
+      <c r="N35">
+        <v>29.64808</v>
+      </c>
+      <c r="O35">
+        <v>0.3801035020273971</v>
+      </c>
+      <c r="P35">
+        <v>0.3421324575713854</v>
+      </c>
+      <c r="Q35">
+        <v>6363.220301568386</v>
+      </c>
+      <c r="R35">
+        <v>38179.32180941032</v>
+      </c>
+      <c r="S35">
+        <v>0.2658466126510149</v>
+      </c>
+      <c r="T35">
+        <v>0.2403721338635892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H31">
-        <v>513.335785</v>
-      </c>
-      <c r="I31">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J31">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.6397666666666667</v>
-      </c>
-      <c r="N31">
-        <v>1.9193</v>
-      </c>
-      <c r="O31">
-        <v>0.01962851343218814</v>
-      </c>
-      <c r="P31">
-        <v>0.02397470805081264</v>
-      </c>
-      <c r="Q31">
-        <v>109.4717080167222</v>
-      </c>
-      <c r="R31">
-        <v>985.2453721505001</v>
-      </c>
-      <c r="S31">
-        <v>0.007696178504655313</v>
-      </c>
-      <c r="T31">
-        <v>0.009401703378813117</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H36">
+        <v>1287.750229</v>
+      </c>
+      <c r="I36">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J36">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.118862333333333</v>
+      </c>
+      <c r="N36">
+        <v>3.356587</v>
+      </c>
+      <c r="O36">
+        <v>0.02868877115729213</v>
+      </c>
+      <c r="P36">
+        <v>0.03873429103544526</v>
+      </c>
+      <c r="Q36">
+        <v>480.2717419898248</v>
+      </c>
+      <c r="R36">
+        <v>4322.445677908423</v>
+      </c>
+      <c r="S36">
+        <v>0.02006509435615914</v>
+      </c>
+      <c r="T36">
+        <v>0.0272135659269937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H37">
+        <v>1287.750229</v>
+      </c>
+      <c r="I37">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J37">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.6464153333333333</v>
+      </c>
+      <c r="N37">
+        <v>1.939246</v>
+      </c>
+      <c r="O37">
+        <v>0.01657474831181022</v>
+      </c>
+      <c r="P37">
+        <v>0.02237848116355187</v>
+      </c>
+      <c r="Q37">
+        <v>277.4738311763704</v>
+      </c>
+      <c r="R37">
+        <v>2497.264480587334</v>
+      </c>
+      <c r="S37">
+        <v>0.01159247591967799</v>
+      </c>
+      <c r="T37">
+        <v>0.01572245822010835</v>
       </c>
     </row>
   </sheetData>
